--- a/projects/example/sample_list.xlsx
+++ b/projects/example/sample_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA-charge-seq/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA-charge-seq/projects/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6BAD62-EE5D-C441-9340-31877B6C2288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D8ED9-4A85-5A42-9A65-03CAA3137470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="500" windowWidth="25960" windowHeight="14500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,7 +704,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1</v>

--- a/projects/example/sample_list.xlsx
+++ b/projects/example/sample_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA-charge-seq/projects/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D8ED9-4A85-5A42-9A65-03CAA3137470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62432210-C407-DF49-8FB2-9C659B614379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="500" windowWidth="25960" windowHeight="14500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2380" windowWidth="15160" windowHeight="14500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,18 +119,9 @@
     <t>l6Sp</t>
   </si>
   <si>
-    <t>l8Sp</t>
-  </si>
-  <si>
     <t>l9Sp</t>
   </si>
   <si>
-    <t>l10Sp</t>
-  </si>
-  <si>
-    <t>l12Sp</t>
-  </si>
-  <si>
     <t>Percent charge</t>
   </si>
   <si>
@@ -147,13 +138,22 @@
   </si>
   <si>
     <t>47p</t>
+  </si>
+  <si>
+    <t>l2Sp</t>
+  </si>
+  <si>
+    <t>l4Sp</t>
+  </si>
+  <si>
+    <t>l7Sp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -169,6 +169,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -195,13 +202,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,7 +537,7 @@
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
@@ -587,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -599,16 +607,16 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
@@ -628,10 +636,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -640,16 +648,16 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>18</v>
@@ -669,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -681,16 +689,16 @@
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>19</v>
@@ -701,19 +709,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
@@ -722,19 +730,19 @@
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -751,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -763,16 +771,16 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
@@ -783,7 +791,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -792,10 +800,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
@@ -804,16 +812,16 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
@@ -833,10 +841,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
@@ -851,10 +859,10 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -874,10 +882,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
@@ -886,16 +894,16 @@
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
@@ -958,8 +966,8 @@
       <c r="A15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -968,8 +976,8 @@
       <c r="A16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -978,8 +986,8 @@
       <c r="A17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -988,8 +996,8 @@
       <c r="A18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -998,8 +1006,8 @@
       <c r="A19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1008,8 +1016,8 @@
       <c r="A20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1018,8 +1026,8 @@
       <c r="A21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1028,8 +1036,8 @@
       <c r="A22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1038,8 +1046,8 @@
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1048,8 +1056,8 @@
       <c r="A24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1058,8 +1066,8 @@
       <c r="A25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
